--- a/LM2ReadandList/NewListOut111.xlsx
+++ b/LM2ReadandList/NewListOut111.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F1F87-5C0B-48F2-B684-889E66F292EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7380"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -49,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,14 +116,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="24"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -267,11 +273,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -280,9 +292,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,26 +312,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -337,13 +351,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>433004</xdr:colOff>
+      <xdr:colOff>436814</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66414</xdr:rowOff>
+      <xdr:rowOff>64509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -375,13 +395,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>461579</xdr:colOff>
+      <xdr:colOff>463484</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="4" name="圖片 3" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -419,7 +445,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線接點 5"/>
+        <xdr:cNvPr id="6" name="直線接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -463,7 +495,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線接點 7"/>
+        <xdr:cNvPr id="8" name="直線接點 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -507,7 +545,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線接點 8"/>
+        <xdr:cNvPr id="9" name="直線接點 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -551,7 +595,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線接點 9"/>
+        <xdr:cNvPr id="10" name="直線接點 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -595,7 +645,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線接點 10"/>
+        <xdr:cNvPr id="11" name="直線接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -639,7 +695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線接點 11"/>
+        <xdr:cNvPr id="12" name="直線接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -683,7 +745,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線接點 12"/>
+        <xdr:cNvPr id="13" name="直線接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -727,7 +795,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線接點 13"/>
+        <xdr:cNvPr id="14" name="直線接點 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -771,7 +845,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線接點 14"/>
+        <xdr:cNvPr id="15" name="直線接點 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -815,7 +895,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線接點 15"/>
+        <xdr:cNvPr id="16" name="直線接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -859,7 +945,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線接點 16"/>
+        <xdr:cNvPr id="17" name="直線接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -903,7 +995,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線接點 17"/>
+        <xdr:cNvPr id="18" name="直線接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -947,7 +1045,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線接點 18"/>
+        <xdr:cNvPr id="19" name="直線接點 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -991,7 +1095,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線接點 19"/>
+        <xdr:cNvPr id="20" name="直線接點 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1035,7 +1145,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線接點 20"/>
+        <xdr:cNvPr id="21" name="直線接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1079,7 +1195,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線接點 21"/>
+        <xdr:cNvPr id="22" name="直線接點 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1123,7 +1245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線接點 22"/>
+        <xdr:cNvPr id="23" name="直線接點 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1167,7 +1295,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線接點 23"/>
+        <xdr:cNvPr id="24" name="直線接點 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1211,7 +1345,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線接點 24"/>
+        <xdr:cNvPr id="25" name="直線接點 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1255,7 +1395,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線接點 25"/>
+        <xdr:cNvPr id="26" name="直線接點 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1299,7 +1445,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線接點 26"/>
+        <xdr:cNvPr id="27" name="直線接點 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1343,7 +1495,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線接點 27"/>
+        <xdr:cNvPr id="28" name="直線接點 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1387,7 +1545,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線接點 28"/>
+        <xdr:cNvPr id="29" name="直線接點 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1431,7 +1595,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線接點 29"/>
+        <xdr:cNvPr id="30" name="直線接點 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1469,13 +1639,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>433004</xdr:colOff>
+      <xdr:colOff>436814</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66414</xdr:rowOff>
+      <xdr:rowOff>64509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="圖片 30" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="31" name="圖片 30" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1513,7 +1689,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線接點 32"/>
+        <xdr:cNvPr id="33" name="直線接點 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1557,7 +1739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線接點 33"/>
+        <xdr:cNvPr id="34" name="直線接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1601,7 +1789,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線接點 34"/>
+        <xdr:cNvPr id="35" name="直線接點 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1645,7 +1839,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線接點 35"/>
+        <xdr:cNvPr id="36" name="直線接點 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1689,7 +1889,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線接點 36"/>
+        <xdr:cNvPr id="37" name="直線接點 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1733,7 +1939,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線接點 37"/>
+        <xdr:cNvPr id="38" name="直線接點 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1777,7 +1989,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線接點 38"/>
+        <xdr:cNvPr id="39" name="直線接點 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1821,7 +2039,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線接點 39"/>
+        <xdr:cNvPr id="40" name="直線接點 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1865,7 +2089,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線接點 40"/>
+        <xdr:cNvPr id="41" name="直線接點 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1909,7 +2139,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線接點 41"/>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1953,7 +2189,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線接點 42"/>
+        <xdr:cNvPr id="43" name="直線接點 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1997,7 +2239,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43"/>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2041,7 +2289,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線接點 44"/>
+        <xdr:cNvPr id="45" name="直線接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2085,7 +2339,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45"/>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2129,7 +2389,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線接點 46"/>
+        <xdr:cNvPr id="47" name="直線接點 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2173,7 +2439,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線接點 47"/>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2217,7 +2489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線接點 48"/>
+        <xdr:cNvPr id="49" name="直線接點 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2261,7 +2539,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線接點 49"/>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2305,7 +2589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線接點 50"/>
+        <xdr:cNvPr id="51" name="直線接點 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2349,7 +2639,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51"/>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2393,7 +2689,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線接點 52"/>
+        <xdr:cNvPr id="53" name="直線接點 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2437,7 +2739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53"/>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2481,7 +2789,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線接點 54"/>
+        <xdr:cNvPr id="55" name="直線接點 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2525,7 +2839,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線接點 55"/>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2600,7 +2920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2632,9 +2952,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2666,6 +3004,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2841,484 +3197,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="I1" sqref="I1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="9.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="1" customWidth="1"/>
-    <col min="20" max="27" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="18" width="9.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.21875" style="1" customWidth="1"/>
+    <col min="20" max="27" width="8.6640625" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="1" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="8"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="26"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="9"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
+    <row r="6" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="11"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+    <row r="8" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="11"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+    <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="11"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
+    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="11"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
+    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="11"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
+    <row r="16" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="11"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
+    <row r="18" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="37.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="15"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="27">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+    <row r="20" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="27">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+    <row r="21" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="27">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+    <row r="22" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:19" ht="27">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+    <row r="23" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
       <c r="Q23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -3343,61 +3793,15 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
@@ -3407,54 +3811,6 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut111.xlsx
+++ b/LM2ReadandList/NewListOut111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F1F87-5C0B-48F2-B684-889E66F292EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E14B9-762E-4B8D-8E40-515A20514291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -236,10 +236,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,43 +252,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,15 +291,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -319,6 +298,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2878,9 +2881,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2918,9 +2921,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2953,26 +2956,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3005,26 +2991,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3198,474 +3167,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:R1"/>
+      <selection activeCell="I2" sqref="I2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="9.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.21875" style="1" customWidth="1"/>
-    <col min="20" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="1" max="18" width="9.109375" customWidth="1"/>
+    <col min="19" max="19" width="5.21875" customWidth="1"/>
+    <col min="20" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="19" t="s">
+    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="19" t="s">
+    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
-    <row r="3" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="19" t="s">
+    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="19" t="s">
+    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:18" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
+    <row r="6" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10"/>
+    <row r="7" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
+    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10"/>
+    <row r="9" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+    <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="10"/>
+    <row r="11" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+    <row r="12" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
+    <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+    <row r="14" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="10"/>
+    <row r="15" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+    <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="10"/>
+    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+    <row r="18" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
     </row>
-    <row r="19" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="17"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="Q20" s="10"/>
+    <row r="20" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="Q21" s="10"/>
+    <row r="21" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="Q22" s="10"/>
+    <row r="22" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="Q23" s="10"/>
+    <row r="23" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
@@ -3690,127 +3769,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut111.xlsx
+++ b/LM2ReadandList/NewListOut111.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E14B9-762E-4B8D-8E40-515A20514291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685EEB3-EC57-4FE3-AACC-7A30205CB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,13 +273,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +306,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -308,21 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -345,94 +345,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>299359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>436814</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64509</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="299359"/>
-          <a:ext cx="2357054" cy="1281530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>346984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>463484</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114039</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3" descr="logo白底黑字.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="346984"/>
-          <a:ext cx="2357054" cy="1281530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -1631,50 +1543,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>299359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>436814</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64509</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="圖片 30" descr="logo白底黑字.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="299359"/>
-          <a:ext cx="2328479" cy="1281530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3173,475 +3041,554 @@
       <selection activeCell="I2" sqref="I2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="18" width="9.109375" customWidth="1"/>
     <col min="19" max="19" width="5.21875" customWidth="1"/>
     <col min="20" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="7"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
     </row>
-    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:18" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:18" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
     </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+    <row r="6" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+    <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+    <row r="12" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+    <row r="14" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
+    <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
+    <row r="18" spans="1:18" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+    <row r="20" spans="1:18" ht="27.6">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+    <row r="21" spans="1:18" ht="27.6">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+    <row r="22" spans="1:18" ht="27.6">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+    <row r="23" spans="1:18" ht="27.6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -3666,109 +3613,30 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
